--- a/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-B2 Skjema.xlsx
+++ b/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-B2 Skjema.xlsx
@@ -1323,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746C6646-590D-48B6-A3F3-1AFB24E20C8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BF6B61-B806-42C6-9B00-093AC740F0A9}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">

--- a/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-B2 Skjema.xlsx
+++ b/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-B2 Skjema.xlsx
@@ -1323,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BF6B61-B806-42C6-9B00-093AC740F0A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6591F15D-E092-4720-9B09-29A551BC2392}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">

--- a/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-B2 Skjema.xlsx
+++ b/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-B2 Skjema.xlsx
@@ -1323,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6591F15D-E092-4720-9B09-29A551BC2392}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641BE4DF-8AAB-43A1-BC0E-B51B9BCD7451}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
